--- a/db-definition.xlsx
+++ b/db-definition.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23413"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{533F344D-4869-4DBD-A429-005AB4EC2B74}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D20C5A6-062E-41DD-AAA8-BEF667FC9684}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>改定履歴</t>
   </si>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -875,9 +875,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1104,7 +1105,7 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1185,7 +1186,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1215,7 +1216,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>44123</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1251,7 +1252,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>44123</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -30018,61 +30019,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -30103,11 +30104,11 @@
       <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30135,11 +30136,11 @@
         <v>30</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30163,11 +30164,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30189,11 +30190,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30221,11 +30222,11 @@
       <c r="K8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30247,11 +30248,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30275,11 +30276,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30301,11 +30302,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30329,8 +30330,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30369,49 +30370,49 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -30444,7 +30445,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30460,7 +30461,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30476,7 +30477,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30492,7 +30493,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30508,7 +30509,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30524,7 +30525,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30540,7 +30541,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30556,7 +30557,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30572,7 +30573,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30588,7 +30589,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30604,7 +30605,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30620,7 +30621,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30654,9 +30655,9 @@
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30678,55 +30679,55 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -30757,13 +30758,13 @@
       <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -30789,11 +30790,11 @@
         <v>57</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30817,11 +30818,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30845,11 +30846,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30873,11 +30874,11 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30901,11 +30902,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30927,11 +30928,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30959,10 +30960,11 @@
       <c r="K11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1">
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30990,8 +30992,11 @@
       <c r="K12" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" s="24" customFormat="1">
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31013,24 +31018,25 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="12.75">
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" s="24" customFormat="1">
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
-      <c r="F14" s="16">
-        <v>11</v>
-      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="19" t="s">
         <v>28</v>
@@ -31038,69 +31044,53 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" s="24" customFormat="1">
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" s="24" customFormat="1" ht="12.75">
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="16">
-        <v>11</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="15"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31145,27 +31135,49 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -31198,6 +31210,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B6" si="0">ROW()-4</f>
         <v>1</v>
@@ -31227,6 +31240,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
